--- a/database/industries/zeraat/simorgh/product/yearly_seprated.xlsx
+++ b/database/industries/zeraat/simorgh/product/yearly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D811A70D-4768-433C-A713-DD5A01C642F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="68">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سیمرغ-سیمرغ</t>
@@ -105,9 +106,6 @@
     <t>شانه تخم مرغ</t>
   </si>
   <si>
-    <t>هزارعدد</t>
-  </si>
-  <si>
     <t>خدمات کارمزد خشک نمودن ذرت</t>
   </si>
   <si>
@@ -181,9 +179,6 @@
   </si>
   <si>
     <t>هزارقطعه / ریال</t>
-  </si>
-  <si>
-    <t>هزارعدد / ریال</t>
   </si>
   <si>
     <t>کیلوگرم / ریال</t>
@@ -234,7 +229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,7 +422,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -439,7 +434,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -486,6 +481,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -521,6 +533,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -672,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1071,7 +1100,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
@@ -1092,7 +1121,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>17</v>
@@ -1116,10 +1145,10 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
@@ -1140,7 +1169,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -1162,7 +1191,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -1174,7 +1203,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -1196,7 +1225,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -1208,7 +1237,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -1230,10 +1259,10 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19" t="s">
@@ -1254,7 +1283,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -1276,7 +1305,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -1328,7 +1357,7 @@
     </row>
     <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1360,7 +1389,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1375,7 +1404,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
@@ -1399,7 +1428,7 @@
         <v>13</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13" t="s">
@@ -1423,7 +1452,7 @@
         <v>15</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
@@ -1447,7 +1476,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
@@ -1471,7 +1500,7 @@
         <v>18</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
@@ -1495,7 +1524,7 @@
         <v>19</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
@@ -1519,7 +1548,7 @@
         <v>20</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
@@ -1543,7 +1572,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
@@ -1567,7 +1596,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
@@ -1591,7 +1620,7 @@
         <v>25</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13" t="s">
@@ -1615,7 +1644,7 @@
         <v>26</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
@@ -1639,7 +1668,7 @@
         <v>27</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13" t="s">
@@ -1660,10 +1689,10 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
@@ -1684,10 +1713,10 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13" t="s">
@@ -1708,7 +1737,7 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -1730,7 +1759,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -1742,7 +1771,7 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -1764,7 +1793,7 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -1776,7 +1805,7 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -1798,10 +1827,10 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="19" t="s">
@@ -1822,10 +1851,10 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15" t="s">
@@ -1846,7 +1875,7 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -1898,7 +1927,7 @@
     </row>
     <row r="64" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -1930,7 +1959,7 @@
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -1945,7 +1974,7 @@
         <v>11</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
@@ -1969,7 +1998,7 @@
         <v>13</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13" t="s">
@@ -1993,7 +2022,7 @@
         <v>15</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
@@ -2017,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="s">
@@ -2041,7 +2070,7 @@
         <v>18</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
@@ -2065,7 +2094,7 @@
         <v>19</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
@@ -2089,7 +2118,7 @@
         <v>20</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
@@ -2113,7 +2142,7 @@
         <v>22</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13" t="s">
@@ -2137,7 +2166,7 @@
         <v>24</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
@@ -2161,7 +2190,7 @@
         <v>25</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
@@ -2185,7 +2214,7 @@
         <v>26</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
@@ -2209,7 +2238,7 @@
         <v>27</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
@@ -2230,10 +2259,10 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
@@ -2254,10 +2283,10 @@
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13" t="s">
@@ -2308,7 +2337,7 @@
     </row>
     <row r="84" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2340,7 +2369,7 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -2355,7 +2384,7 @@
         <v>11</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
@@ -2379,7 +2408,7 @@
         <v>13</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13" t="s">
@@ -2403,7 +2432,7 @@
         <v>15</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
@@ -2427,7 +2456,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13" t="s">
@@ -2451,7 +2480,7 @@
         <v>18</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
@@ -2475,7 +2504,7 @@
         <v>19</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13" t="s">
@@ -2499,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
@@ -2523,7 +2552,7 @@
         <v>22</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13" t="s">
@@ -2547,7 +2576,7 @@
         <v>24</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
@@ -2571,7 +2600,7 @@
         <v>25</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13" t="s">
@@ -2595,7 +2624,7 @@
         <v>26</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
@@ -2619,7 +2648,7 @@
         <v>27</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13" t="s">
@@ -2640,10 +2669,10 @@
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
@@ -2664,10 +2693,10 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13" t="s">
@@ -2688,7 +2717,7 @@
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
@@ -2710,7 +2739,7 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -2722,7 +2751,7 @@
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
@@ -2744,7 +2773,7 @@
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -2756,7 +2785,7 @@
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
@@ -2778,10 +2807,10 @@
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
@@ -2802,10 +2831,10 @@
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="15" t="s">
@@ -2826,7 +2855,7 @@
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
@@ -2878,7 +2907,7 @@
     </row>
     <row r="112" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -2910,7 +2939,7 @@
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -2925,7 +2954,7 @@
         <v>11</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11" t="s">
@@ -2949,7 +2978,7 @@
         <v>13</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13" t="s">
@@ -2973,7 +3002,7 @@
         <v>15</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11" t="s">
@@ -2997,7 +3026,7 @@
         <v>16</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D118" s="13"/>
       <c r="E118" s="13" t="s">
@@ -3021,7 +3050,7 @@
         <v>18</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11" t="s">
@@ -3045,7 +3074,7 @@
         <v>19</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D120" s="13"/>
       <c r="E120" s="13" t="s">
@@ -3069,7 +3098,7 @@
         <v>20</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11" t="s">
@@ -3093,7 +3122,7 @@
         <v>22</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D122" s="13"/>
       <c r="E122" s="13" t="s">
@@ -3117,7 +3146,7 @@
         <v>24</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11" t="s">
@@ -3141,7 +3170,7 @@
         <v>25</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D124" s="13"/>
       <c r="E124" s="13" t="s">
@@ -3165,7 +3194,7 @@
         <v>26</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11" t="s">
@@ -3189,7 +3218,7 @@
         <v>27</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="13" t="s">
@@ -3210,10 +3239,10 @@
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11" t="s">
@@ -3234,10 +3263,10 @@
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13" t="s">
@@ -3258,7 +3287,7 @@
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
@@ -3280,7 +3309,7 @@
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
@@ -3292,7 +3321,7 @@
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
@@ -3314,7 +3343,7 @@
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
@@ -3326,7 +3355,7 @@
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
@@ -3348,7 +3377,7 @@
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>

--- a/database/industries/zeraat/simorgh/product/yearly_seprated.xlsx
+++ b/database/industries/zeraat/simorgh/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D811A70D-4768-433C-A713-DD5A01C642F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4F5FCA-0B9B-4D8A-840A-9D13191526E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -706,12 +706,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -721,7 +721,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -733,7 +733,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -755,7 +755,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -789,7 +789,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -811,7 +811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -821,7 +821,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
@@ -881,7 +881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -927,7 +927,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -951,7 +951,7 @@
         <v>76356</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
@@ -975,7 +975,7 @@
         <v>70031</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
@@ -999,7 +999,7 @@
         <v>18238</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>22</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>27</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>29</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>168969</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
@@ -1201,7 +1201,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>33</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>34</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
         <v>36</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>38</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
         <v>39</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>168969</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1335,7 +1335,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1345,7 +1345,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1355,7 +1355,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>40</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1387,7 +1387,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>41</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>11</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>160245</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>13</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>15</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>254187</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>16</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>60023</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>18</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>323478</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>19</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>12247591</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>20</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>1103247</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>22</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>119115</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>24</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>25</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>26</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>375268</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>27</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>28</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>29</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>31</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>14643154</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="16" t="s">
         <v>43</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>33</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="16" t="s">
         <v>44</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>35</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>36</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>38</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="18" t="s">
         <v>39</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>14643154</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1905,7 +1905,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1915,7 +1915,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1925,7 +1925,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>45</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1957,7 +1957,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>46</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>11</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>13</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>15</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>16</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>60385312</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>18</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>4236445</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>19</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>174888135</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>20</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>60491666</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>22</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>534147982</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>24</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>25</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>26</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>120008954</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>27</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>28</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>29</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2315,7 +2315,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2325,7 +2325,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2335,7 +2335,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
         <v>54</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2367,7 +2367,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>55</v>
       </c>
@@ -2379,7 +2379,7 @@
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>11</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>-235720</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>13</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>15</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>16</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>-37220</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>18</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>19</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>-7933555</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>20</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>-664665</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>22</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>24</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>25</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>26</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>-245354</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>27</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>28</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>29</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>56</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>-9116514</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="16" t="s">
         <v>57</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>58</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="16" t="s">
         <v>59</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="14" t="s">
         <v>60</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="18" t="s">
         <v>36</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>38</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="18" t="s">
         <v>39</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>-9116514</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2885,7 +2885,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2895,7 +2895,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2905,7 +2905,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>61</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2937,7 +2937,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>62</v>
       </c>
@@ -2949,7 +2949,7 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>11</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>-75475</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>13</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>15</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>254187</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>16</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>22803</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>18</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>323478</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>19</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>4314036</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>20</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>438582</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="12" t="s">
         <v>22</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>119115</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>24</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="12" t="s">
         <v>25</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>26</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>129914</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="12" t="s">
         <v>27</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>28</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>29</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="14" t="s">
         <v>63</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>5526640</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="16" t="s">
         <v>64</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>65</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="16" t="s">
         <v>66</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="H132" s="17"/>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="14" t="s">
         <v>67</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="18" t="s">
         <v>39</v>
       </c>
